--- a/data/trans_dic/P0901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,34%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,81%</t>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,83; 34,17</t>
+          <t>26,36; 33,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,55; 47,37</t>
+          <t>41,09; 46,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,51; 41,26</t>
+          <t>35,97; 40,6</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>11,99%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,49</t>
+          <t>8,06; 12,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,11</t>
+          <t>9,67; 15,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,42</t>
+          <t>9,37; 13,55</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,74%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,38</t>
+          <t>5,98; 10,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,77</t>
+          <t>7,77; 11,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,49</t>
+          <t>7,39; 10,33</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,81; 15,42</t>
+          <t>10,19; 14,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 21,45</t>
+          <t>15,53; 20,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 18,25</t>
+          <t>13,73; 17,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P0901-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,81</t>
+          <t>14,9; 19,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,04</t>
+          <t>21,92; 27,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 26,19</t>
+          <t>19,98; 26,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,36; 33,75</t>
+          <t>26,37; 33,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 28,91</t>
+          <t>24,21; 28,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 40,09</t>
+          <t>34,58; 39,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,6; 40,08</t>
+          <t>34,24; 40,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,09; 46,67</t>
+          <t>40,92; 46,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,14</t>
+          <t>20,52; 23,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,97; 34,06</t>
+          <t>29,99; 34,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,63; 33,18</t>
+          <t>28,73; 33,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,97; 40,6</t>
+          <t>35,97; 40,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,83</t>
+          <t>4,54; 6,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,24</t>
+          <t>5,99; 8,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,17; 8,49</t>
+          <t>6,2; 8,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,55</t>
+          <t>7,23; 12,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,77</t>
+          <t>8,76; 11,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 13,43</t>
+          <t>10,07; 13,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,97</t>
+          <t>11,68; 14,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,38</t>
+          <t>9,39; 15,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 8,76</t>
+          <t>6,82; 8,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 10,29</t>
+          <t>8,2; 10,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,17; 11,19</t>
+          <t>9,14; 11,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,55</t>
+          <t>9,49; 13,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,7</t>
+          <t>2,91; 6,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,26</t>
+          <t>3,93; 9,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,96</t>
+          <t>3,6; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 10,42</t>
+          <t>6,02; 10,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 12,15</t>
+          <t>6,7; 12,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 10,91</t>
+          <t>5,72; 10,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 12,87</t>
+          <t>7,67; 13,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,69</t>
+          <t>7,78; 11,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,35</t>
+          <t>5,22; 8,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,27</t>
+          <t>5,66; 9,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,45</t>
+          <t>6,19; 9,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,33</t>
+          <t>7,37; 10,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,07; 10,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 13,25</t>
+          <t>10,89; 13,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 11,68</t>
+          <t>9,46; 11,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,64</t>
+          <t>10,21; 14,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,01; 17,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,21</t>
+          <t>19,54; 22,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 21,02</t>
+          <t>18,05; 20,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,68</t>
+          <t>15,57; 20,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,96; 13,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 17,42</t>
+          <t>15,6; 17,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 15,98</t>
+          <t>14,25; 16,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 17,45</t>
+          <t>13,96; 17,28</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>177278</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>242279</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>174128</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>153717</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>348080</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>498336</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>368438</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>330965</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>525358</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>740615</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>542566</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>484683</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153724; 200432</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>213626; 269322</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>150750; 198043</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>135790; 174734</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>318344; 381182</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>462627; 534480</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>340528; 402153</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>309117; 352254</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>481504; 562730</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>693472; 787134</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>502412; 584659</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>457011; 515617</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>94209</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>137784</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>150466</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>244005</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>160686</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>204781</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>263286</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>298337</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>254895</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>342564</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>413752</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>542342</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>76878; 115419</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>117621; 164348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>128827; 176550</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>165469; 287869</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>139135; 186886</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>177002; 231977</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>232299; 295290</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>209961; 343830</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>223670; 283976</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>305132; 382134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>371561; 456831</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>429461; 607182</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24931</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30535</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30206</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50997</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>43367</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>36689</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55215</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63181</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>68298</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>67223</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85422</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>114178</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16070; 36477</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18932; 43936</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19672; 43424</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38934; 67097</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31915; 58767</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>26240; 50043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42129; 72189</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>51403; 77566</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>53632; 85374</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53167; 87689</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>67880; 109358</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>96325; 133099</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1784</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>296417</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>410598</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>354801</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>448720</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>552134</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>739805</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>686939</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>692484</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>848551</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1150403</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1041740</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1141203</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>264385; 331126</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>372282; 450961</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>319653; 393309</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>352156; 504126</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>507095; 596362</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>694658; 793403</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>637432; 731246</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>568506; 753811</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>795998; 909314</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1087931; 1212123</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>984439; 1112265</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>991597; 1227432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>